--- a/Tarea/DataTarea_Exogenas_Riesgo11.xlsx
+++ b/Tarea/DataTarea_Exogenas_Riesgo11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Riesgo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob.sharepoint.com/sites/DMM/AlterH/DpModMac/Infomes_Especiales/2025/CEUECO2025/Github/Backup/CUECOPolMon/Ignorar_Backup/Riesgo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1EE37C-91AF-4516-9350-77D3F55A9F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{810DA4D8-D62B-475F-9F77-AA834F2B8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89253F49-6BFE-4966-8D7F-B712A8780BC1}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="3915" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -165,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,6 +217,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,14 +528,14 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -563,8 +572,8 @@
       <c r="A3" s="12">
         <v>45747</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.41384956126651085</v>
+      <c r="B3" s="17">
+        <v>0.7</v>
       </c>
       <c r="C3" s="4">
         <v>-0.75513327035578404</v>
@@ -589,8 +598,8 @@
       <c r="A4" s="12">
         <v>45838</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.6266701743315759</v>
+      <c r="B4" s="17">
+        <v>0.9</v>
       </c>
       <c r="C4" s="4">
         <v>-0.67154812714435619</v>
@@ -615,8 +624,8 @@
       <c r="A5" s="12">
         <v>45930</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.7955613233791039</v>
+      <c r="B5" s="17">
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>-0.63826461122156442</v>
@@ -641,8 +650,8 @@
       <c r="A6" s="12">
         <v>46022</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.92482938470867504</v>
+      <c r="B6" s="17">
+        <v>1.2</v>
       </c>
       <c r="C6" s="4">
         <v>-0.60359643547296371</v>
@@ -667,8 +676,8 @@
       <c r="A7" s="12">
         <v>46112</v>
       </c>
-      <c r="B7" s="4">
-        <v>1.020894955175071</v>
+      <c r="B7" s="17">
+        <v>1.3</v>
       </c>
       <c r="C7" s="4">
         <v>-0.59081097016459339</v>
@@ -693,8 +702,8 @@
       <c r="A8" s="12">
         <v>46203</v>
       </c>
-      <c r="B8" s="4">
-        <v>1.090408717430285</v>
+      <c r="B8" s="17">
+        <v>1.3</v>
       </c>
       <c r="C8" s="4">
         <v>-0.58002114131167803</v>
@@ -719,8 +728,8 @@
       <c r="A9" s="12">
         <v>46295</v>
       </c>
-      <c r="B9" s="4">
-        <v>1.1394703557769941</v>
+      <c r="B9" s="17">
+        <v>1.3</v>
       </c>
       <c r="C9" s="4">
         <v>-0.58802972758289807</v>
@@ -745,8 +754,8 @@
       <c r="A10" s="12">
         <v>46387</v>
       </c>
-      <c r="B10" s="4">
-        <v>1.173303583980273</v>
+      <c r="B10" s="17">
+        <v>1.4</v>
       </c>
       <c r="C10" s="4">
         <v>-0.60570801121811191</v>
@@ -767,31 +776,31 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="16"/>
     </row>
   </sheetData>
@@ -808,13 +817,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -822,23 +831,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45717</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45809</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45901</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45992</v>
       </c>
@@ -846,4 +855,291 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A95F695341A2644683A40A4AE0B8881B" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7e2131995a243c87950f34ace40f824b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d" xmlns:ns3="3af99e43-9d1b-47f0-a012-42c2c9480d00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f83123875d1c33fca838d74f50e10f7e" ns2:_="" ns3:_="">
+    <xsd:import namespace="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d"/>
+    <xsd:import namespace="3af99e43-9d1b-47f0-a012-42c2c9480d00"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8fcd6294-0138-4824-9930-013f35034f52" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3af99e43-9d1b-47f0-a012-42c2c9480d00" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8a0bee93-f73f-4041-9acd-adad611ec4da}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="3af99e43-9d1b-47f0-a012-42c2c9480d00">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3af99e43-9d1b-47f0-a012-42c2c9480d00" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81D9026C-6E30-418D-8AB3-932E7724DA93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d"/>
+    <ds:schemaRef ds:uri="3af99e43-9d1b-47f0-a012-42c2c9480d00"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5379DE3-6E5D-4674-A724-E9D70D09A1C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d"/>
+    <ds:schemaRef ds:uri="3af99e43-9d1b-47f0-a012-42c2c9480d00"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6260AFF-FA3D-4D2F-BB0E-671AFFEB0CE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>